--- a/Document/CD2 - Group6/4. Agile-product-backlog-Group6.xlsx
+++ b/Document/CD2 - Group6/4. Agile-product-backlog-Group6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoangNghiep\Tai lieu\Nam3\CD_DD\Mobile-Themes-Group-6\Document\CD2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoangNghiep\Tai lieu\Nam3\CD_DD\Mobile-Themes-Group-6\Document\CD2 - Group6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -859,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3">
         <f>SUM(F8:F13)</f>
@@ -905,7 +905,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2">
         <v>20</v>
@@ -950,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2">
         <v>20</v>
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2">
         <v>20</v>
@@ -1040,7 +1040,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2">
         <v>20</v>
@@ -1085,7 +1085,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2">
         <v>20</v>
@@ -1130,7 +1130,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2">
         <v>20</v>
